--- a/2025-10-11/11_fixtures.xlsx
+++ b/2025-10-11/11_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,27 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Argentina - Venezuela: 1:0</t>
+          <t>Norway ✓ - Israel: 5:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.88</v>
+        <v>4.79</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>80%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -522,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spain - Georgia: 19:45</t>
+          <t>Portugal ✓ - Republic of Ireland: 1:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.71</v>
+        <v>3.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,14 +543,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +566,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portugal - Republic of Ireland: 19:45</t>
+          <t>Spain ✓ - Georgia: 2:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.95</v>
+        <v>4.15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>74%</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -590,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auckland City FC - Western Suburbs FC: 3:2</t>
+          <t>Argentina ✓ - Venezuela: 1:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Auckland City FC</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -606,14 +621,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -624,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Academia Quintana - Ponce FC: 21:30</t>
+          <t>Sociedade Esportiva Palmeiras ✓ - Esporte Clube Juventude: 4:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Academia Quintana</t>
+          <t>Sociedade Esportiva Palmeiras</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -640,11 +660,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -658,27 +683,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metropolitan FA - Guayama FC: 21:00</t>
+          <t>The New Saints ✓ - Penybont FC: 6:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Metropolitan FA</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -692,30 +722,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flint Town United - Llanelli Town AFC: 4:0</t>
+          <t>Jaguares de Córdoba ✓ - Leones FC: 4:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.77</v>
+        <v>1.39</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,15 +761,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flint Mountain - Airbus UK Broughton: 14:30</t>
+          <t>Makedonikos Neapolis - POT Iraklis Thessaloniki ✓: 1:4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton</t>
+          <t>POT Iraklis Thessaloniki</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -742,11 +777,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -760,27 +800,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alga Bishkek - FK Dordoi Bishkek: 14:00</t>
+          <t>Bars Karakol ✓ - Asiagoal Bishkek: 6:2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Dordoi Bishkek</t>
+          <t>Bars Karakol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -794,30 +839,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Muras United Dzhalal-Abad - Talant Besh-Küngöy: 14:00</t>
+          <t>Canada X - Australia: 0:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Muras United Dzhalal-Abad</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -828,30 +878,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Holywell Town - Penrhyncoch FC: 14:30</t>
+          <t>PS Kalamata  - AO Egaleo: 1:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.83</v>
+        <v>1.95</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Holywell Town</t>
+          <t>PS Kalamata</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -862,27 +912,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto - Club A.B.B.: 20:00</t>
+          <t>United Arab Emirates ✓ - Oman: 2:1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.47</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -896,15 +951,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FK Laktasi - FK Slavija Sarajevo: 2:0</t>
+          <t>Bulgaria - Turkiye ✓: 1:6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FK Laktasi</t>
+          <t>Turkiye</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -912,35 +967,571 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alga Bishkek - FK Dordoi Bishkek : 14:00</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FK Dordoi Bishkek</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NK Krsko - NK Triglav Kranj ✓: 0:4</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NK Triglav Kranj</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Muras United Dzhalal-Abad  - Talant Besh-Küngöy: 14:00</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Muras United Dzhalal-Abad</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Estonia - Italy ✓: 1:3</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CF Esperança d'Andorra - Inter Club d'Escaldes ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inter Club d'Escaldes</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NK Jesenice - NK Brinje Grosuplje ✓: 2:4</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NK Brinje Grosuplje</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FC Orsha - FC Baranovichi ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FC Baranovichi</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Guangdong GZ-Power ✓ - Nanjing City: 4:1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Guangdong GZ-Power</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Flint Mountain - Airbus UK Broughton ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Airbus UK Broughton</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UD Leiria  - UD Oliveirense: 0:0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UD Leiria</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Serbia X - Albania: 0:1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Llandudno FC ✓ - Caersws FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Llandudno FC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SC Cambuur Leeuwarden ✓ - De Graafschap Doetinchem: 2:0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SC Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>55%</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="K15">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sat Oct 11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FK Laktasi ✓ - FK Slavija Sarajevo: 2:0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FK Laktasi</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="K29">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L15">
-        <f>(K15/K17)*100</f>
+      <c r="L29">
+        <f>(K29/K31)*100</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="K16">
+    <row r="30">
+      <c r="K30">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="K17">
-        <f>K15+K16</f>
+    <row r="31">
+      <c r="K31">
+        <f>K29+K30</f>
         <v/>
       </c>
     </row>
